--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Sort1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.240998880492858</v>
+        <v>1.593549</v>
       </c>
       <c r="H2">
-        <v>0.240998880492858</v>
+        <v>4.780647</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8185302145731395</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8185302145731395</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N2">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q2">
-        <v>0.3620218247061342</v>
+        <v>4.820229694794001</v>
       </c>
       <c r="R2">
-        <v>0.3620218247061342</v>
+        <v>43.382067253146</v>
       </c>
       <c r="S2">
-        <v>0.1093262172973751</v>
+        <v>0.1474588715855976</v>
       </c>
       <c r="T2">
-        <v>0.1093262172973751</v>
+        <v>0.1474588715855976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.240998880492858</v>
+        <v>1.593549</v>
       </c>
       <c r="H3">
-        <v>0.240998880492858</v>
+        <v>4.780647</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8185302145731395</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8185302145731395</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q3">
-        <v>0.3874775001246907</v>
+        <v>2.591334302043</v>
       </c>
       <c r="R3">
-        <v>0.3874775001246907</v>
+        <v>23.322008718387</v>
       </c>
       <c r="S3">
-        <v>0.1170135237312333</v>
+        <v>0.07927324137540775</v>
       </c>
       <c r="T3">
-        <v>0.1170135237312333</v>
+        <v>0.07927324137540774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.240998880492858</v>
+        <v>1.593549</v>
       </c>
       <c r="H4">
-        <v>0.240998880492858</v>
+        <v>4.780647</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8185302145731395</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8185302145731395</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N4">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q4">
-        <v>0.954801420248494</v>
+        <v>7.395069171138</v>
       </c>
       <c r="R4">
-        <v>0.954801420248494</v>
+        <v>66.555622540242</v>
       </c>
       <c r="S4">
-        <v>0.2883384934890652</v>
+        <v>0.2262275087121243</v>
       </c>
       <c r="T4">
-        <v>0.2883384934890652</v>
+        <v>0.2262275087121242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.593549</v>
+      </c>
+      <c r="H5">
+        <v>4.780647</v>
+      </c>
+      <c r="I5">
+        <v>0.8185302145731395</v>
+      </c>
+      <c r="J5">
+        <v>0.8185302145731395</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>7.498988000000001</v>
+      </c>
+      <c r="N5">
+        <v>22.496964</v>
+      </c>
+      <c r="O5">
+        <v>0.4466183243958241</v>
+      </c>
+      <c r="P5">
+        <v>0.446618324395824</v>
+      </c>
+      <c r="Q5">
+        <v>11.950004828412</v>
+      </c>
+      <c r="R5">
+        <v>107.550043455708</v>
+      </c>
+      <c r="S5">
+        <v>0.3655705929000099</v>
+      </c>
+      <c r="T5">
+        <v>0.3655705929000098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.240998880492858</v>
-      </c>
-      <c r="H5">
-        <v>0.240998880492858</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.6684542341954</v>
-      </c>
-      <c r="N5">
-        <v>6.6684542341954</v>
-      </c>
-      <c r="O5">
-        <v>0.4853217654823264</v>
-      </c>
-      <c r="P5">
-        <v>0.4853217654823264</v>
-      </c>
-      <c r="Q5">
-        <v>1.60709000505895</v>
-      </c>
-      <c r="R5">
-        <v>1.60709000505895</v>
-      </c>
-      <c r="S5">
-        <v>0.4853217654823264</v>
-      </c>
-      <c r="T5">
-        <v>0.4853217654823264</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.353293</v>
+      </c>
+      <c r="H6">
+        <v>1.059879</v>
+      </c>
+      <c r="I6">
+        <v>0.1814697854268605</v>
+      </c>
+      <c r="J6">
+        <v>0.1814697854268605</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.024839333333334</v>
+      </c>
+      <c r="N6">
+        <v>9.074518000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.1801507982970389</v>
+      </c>
+      <c r="P6">
+        <v>0.1801507982970388</v>
+      </c>
+      <c r="Q6">
+        <v>1.068654562591334</v>
+      </c>
+      <c r="R6">
+        <v>9.617891063322002</v>
+      </c>
+      <c r="S6">
+        <v>0.03269192671144127</v>
+      </c>
+      <c r="T6">
+        <v>0.03269192671144126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.353293</v>
+      </c>
+      <c r="H7">
+        <v>1.059879</v>
+      </c>
+      <c r="I7">
+        <v>0.1814697854268605</v>
+      </c>
+      <c r="J7">
+        <v>0.1814697854268605</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.626140333333333</v>
+      </c>
+      <c r="N7">
+        <v>4.878420999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.09684827751501936</v>
+      </c>
+      <c r="P7">
+        <v>0.09684827751501934</v>
+      </c>
+      <c r="Q7">
+        <v>0.5745039967843333</v>
+      </c>
+      <c r="R7">
+        <v>5.170535971059</v>
+      </c>
+      <c r="S7">
+        <v>0.0175750361396116</v>
+      </c>
+      <c r="T7">
+        <v>0.0175750361396116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.353293</v>
+      </c>
+      <c r="H8">
+        <v>1.059879</v>
+      </c>
+      <c r="I8">
+        <v>0.1814697854268605</v>
+      </c>
+      <c r="J8">
+        <v>0.1814697854268605</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.640628666666666</v>
+      </c>
+      <c r="N8">
+        <v>13.921886</v>
+      </c>
+      <c r="O8">
+        <v>0.2763825997921178</v>
+      </c>
+      <c r="P8">
+        <v>0.2763825997921177</v>
+      </c>
+      <c r="Q8">
+        <v>1.639501623532667</v>
+      </c>
+      <c r="R8">
+        <v>14.755514611794</v>
+      </c>
+      <c r="S8">
+        <v>0.05015509107999348</v>
+      </c>
+      <c r="T8">
+        <v>0.05015509107999346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.353293</v>
+      </c>
+      <c r="H9">
+        <v>1.059879</v>
+      </c>
+      <c r="I9">
+        <v>0.1814697854268605</v>
+      </c>
+      <c r="J9">
+        <v>0.1814697854268605</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.498988000000001</v>
+      </c>
+      <c r="N9">
+        <v>22.496964</v>
+      </c>
+      <c r="O9">
+        <v>0.4466183243958241</v>
+      </c>
+      <c r="P9">
+        <v>0.446618324395824</v>
+      </c>
+      <c r="Q9">
+        <v>2.649339967484</v>
+      </c>
+      <c r="R9">
+        <v>23.844059707356</v>
+      </c>
+      <c r="S9">
+        <v>0.08104773149581418</v>
+      </c>
+      <c r="T9">
+        <v>0.08104773149581417</v>
       </c>
     </row>
   </sheetData>
